--- a/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/TowerInfo.xlsx
+++ b/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/TowerInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\000-Study\800-GitKraken\DanmukuGame_Resetv1.0\DanmukuGame_Resetv1.0\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBEB83-4840-439C-B702-667FFEBDC671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0437D07-FA69-4B42-9DA0-B5AFAD94230B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="3570" windowWidth="17670" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1644" yWindow="1320" windowWidth="17676" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerInfo" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -454,13 +454,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -471,13 +471,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
         <v>1</v>
